--- a/sat_condensed_highlighted_top_total_score.xlsx
+++ b/sat_condensed_highlighted_top_total_score.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I633"/>
+  <dimension ref="A1:J633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>SAT Score Percentage</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SAT Grade Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -567,6 +573,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -608,6 +615,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -649,6 +657,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -690,6 +699,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -731,6 +741,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -772,6 +783,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -813,6 +825,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -854,6 +867,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -895,6 +909,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -936,6 +951,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -977,6 +993,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1018,6 +1035,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1059,6 +1077,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1100,6 +1119,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1141,6 +1161,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1182,6 +1203,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1223,6 +1245,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1264,6 +1287,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1305,6 +1329,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1346,6 +1371,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1387,6 +1413,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1428,6 +1455,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1469,6 +1497,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1510,6 +1539,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1551,6 +1581,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1592,6 +1623,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1633,6 +1665,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1674,6 +1707,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1715,6 +1749,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1756,6 +1791,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1797,6 +1833,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1838,6 +1875,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1879,6 +1917,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1920,6 +1959,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1961,6 +2001,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2002,6 +2043,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2043,6 +2085,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2084,6 +2127,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2125,6 +2169,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2166,6 +2211,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2207,6 +2253,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2248,6 +2295,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2289,6 +2337,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2330,6 +2379,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2371,6 +2421,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2412,6 +2463,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2453,6 +2505,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2494,6 +2547,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2535,6 +2589,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2576,6 +2631,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2617,6 +2673,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2658,6 +2715,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2699,6 +2757,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2740,6 +2799,7 @@
           <t>76%</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2781,6 +2841,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2822,6 +2883,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2863,6 +2925,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2904,6 +2967,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2945,6 +3009,7 @@
           <t>72%</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2986,6 +3051,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3027,6 +3093,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3068,6 +3135,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3109,6 +3177,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3150,6 +3219,7 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3191,6 +3261,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3232,6 +3303,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3273,6 +3345,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3314,6 +3387,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3355,6 +3429,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3396,6 +3471,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3437,6 +3513,7 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3478,6 +3555,7 @@
           <t>70%</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3519,6 +3597,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3560,6 +3639,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3601,6 +3681,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3642,6 +3723,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3683,6 +3765,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3724,6 +3807,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3765,6 +3849,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3806,6 +3891,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3847,6 +3933,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3888,6 +3975,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3929,6 +4017,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3970,6 +4059,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4011,6 +4101,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4052,6 +4143,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4093,6 +4185,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4134,6 +4227,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4175,6 +4269,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4216,6 +4311,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4257,6 +4353,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4298,6 +4395,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4339,6 +4437,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4380,6 +4479,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4421,6 +4521,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4462,6 +4563,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4503,6 +4605,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4544,6 +4647,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4585,6 +4689,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4626,6 +4731,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4667,6 +4773,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4708,6 +4815,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4749,6 +4857,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4790,6 +4899,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4831,6 +4941,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4872,6 +4983,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4913,6 +5025,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4954,6 +5067,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4995,6 +5109,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5036,6 +5151,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5077,6 +5193,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5118,6 +5235,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5159,6 +5277,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5200,6 +5319,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5241,6 +5361,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5282,6 +5403,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5323,6 +5445,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5364,6 +5487,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5405,6 +5529,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5446,6 +5571,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5487,6 +5613,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5528,6 +5655,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5569,6 +5697,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5610,6 +5739,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5651,6 +5781,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5692,6 +5823,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5733,6 +5865,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5774,6 +5907,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5815,6 +5949,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5856,6 +5991,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5897,6 +6033,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5938,6 +6075,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5979,6 +6117,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6020,6 +6159,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6061,6 +6201,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6102,6 +6243,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6143,6 +6285,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6184,6 +6327,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6225,6 +6369,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6266,6 +6411,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6307,6 +6453,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6348,6 +6495,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6389,6 +6537,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6430,6 +6579,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6471,6 +6621,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6512,6 +6663,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6553,6 +6705,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6594,6 +6747,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6635,6 +6789,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6676,6 +6831,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6717,6 +6873,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6758,6 +6915,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6799,6 +6957,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6840,6 +6999,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6881,6 +7041,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6922,6 +7083,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6963,6 +7125,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7004,6 +7167,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7045,6 +7209,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7086,6 +7251,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7127,6 +7293,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7168,6 +7335,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7209,6 +7377,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7250,6 +7419,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7291,6 +7461,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7332,6 +7503,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7373,6 +7545,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7414,6 +7587,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7455,6 +7629,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7496,6 +7671,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7537,6 +7713,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7578,6 +7755,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7619,6 +7797,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7660,6 +7839,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7701,6 +7881,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7742,6 +7923,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7783,6 +7965,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7824,6 +8007,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7865,6 +8049,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7906,6 +8091,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7947,6 +8133,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7988,6 +8175,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8029,6 +8217,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8070,6 +8259,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8111,6 +8301,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8152,6 +8343,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8193,6 +8385,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8234,6 +8427,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8275,6 +8469,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8316,6 +8511,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8357,6 +8553,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8398,6 +8595,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8439,6 +8637,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8480,6 +8679,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8521,6 +8721,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8562,6 +8763,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8603,6 +8805,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8644,6 +8847,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8685,6 +8889,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8726,6 +8931,7 @@
           <t>78%</t>
         </is>
       </c>
+      <c r="J202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8767,6 +8973,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8808,6 +9015,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8849,6 +9057,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8890,6 +9099,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8931,6 +9141,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8972,6 +9183,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9013,6 +9225,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9054,6 +9267,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9095,6 +9309,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9136,6 +9351,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9177,6 +9393,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9218,6 +9435,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9259,6 +9477,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9300,6 +9519,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9341,6 +9561,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9382,6 +9603,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9423,6 +9645,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9464,6 +9687,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9505,6 +9729,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9546,6 +9771,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9587,6 +9813,7 @@
           <t>79%</t>
         </is>
       </c>
+      <c r="J223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9628,6 +9855,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9669,6 +9897,7 @@
           <t>45%</t>
         </is>
       </c>
+      <c r="J225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9710,6 +9939,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9751,6 +9981,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9792,6 +10023,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -9833,6 +10065,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9874,6 +10107,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -9915,6 +10149,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9956,6 +10191,7 @@
           <t>80%</t>
         </is>
       </c>
+      <c r="J232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9997,6 +10233,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10038,6 +10275,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10079,6 +10317,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10120,6 +10359,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10161,6 +10401,7 @@
           <t>81%</t>
         </is>
       </c>
+      <c r="J237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10202,6 +10443,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10243,6 +10485,7 @@
           <t>83%</t>
         </is>
       </c>
+      <c r="J239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10284,6 +10527,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10325,6 +10569,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10366,6 +10611,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10407,6 +10653,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10448,6 +10695,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10489,6 +10737,7 @@
           <t>47%</t>
         </is>
       </c>
+      <c r="J245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10530,6 +10779,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10571,6 +10821,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10612,6 +10863,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10653,6 +10905,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10694,6 +10947,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10735,6 +10989,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10776,6 +11031,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -10817,6 +11073,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -10858,6 +11115,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -10899,6 +11157,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -10940,6 +11199,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -10981,6 +11241,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11022,6 +11283,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11063,6 +11325,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11104,6 +11367,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11145,6 +11409,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11186,6 +11451,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11227,6 +11493,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11268,6 +11535,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11309,6 +11577,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11350,6 +11619,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11391,6 +11661,7 @@
           <t>49%</t>
         </is>
       </c>
+      <c r="J267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11432,6 +11703,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11473,6 +11745,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11514,6 +11787,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11555,6 +11829,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11596,6 +11871,7 @@
           <t>43%</t>
         </is>
       </c>
+      <c r="J272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11637,6 +11913,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11678,6 +11955,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11719,6 +11997,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -11760,6 +12039,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -11801,6 +12081,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -11842,6 +12123,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -11883,6 +12165,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -11924,6 +12207,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -11965,6 +12249,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12006,6 +12291,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12047,6 +12333,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12088,6 +12375,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12129,6 +12417,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12170,6 +12459,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12211,6 +12501,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12252,6 +12543,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12293,6 +12585,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12334,6 +12627,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12375,6 +12669,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12416,6 +12711,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12457,6 +12753,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12498,6 +12795,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12539,6 +12837,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12580,6 +12879,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12621,6 +12921,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12662,6 +12963,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12703,6 +13005,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -12744,6 +13047,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -12785,6 +13089,7 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="J301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -12826,6 +13131,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -12867,6 +13173,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -12908,6 +13215,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -12949,6 +13257,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -12990,6 +13299,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13031,6 +13341,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -13072,6 +13383,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13113,6 +13425,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -13154,6 +13467,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13195,6 +13509,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13236,6 +13551,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13277,6 +13593,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13318,6 +13635,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13359,6 +13677,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13400,6 +13719,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13441,6 +13761,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13482,6 +13803,7 @@
           <t>70%</t>
         </is>
       </c>
+      <c r="J318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13523,6 +13845,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13564,6 +13887,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13605,6 +13929,7 @@
           <t>73%</t>
         </is>
       </c>
+      <c r="J321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13646,6 +13971,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13687,6 +14013,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -13728,6 +14055,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -13769,6 +14097,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -13810,6 +14139,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -13851,6 +14181,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -13892,6 +14223,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -13933,6 +14265,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -13974,6 +14307,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -14015,6 +14349,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -14056,6 +14391,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14097,6 +14433,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14138,6 +14475,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14179,6 +14517,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14220,6 +14559,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14261,6 +14601,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14302,6 +14643,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -14343,6 +14685,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14384,6 +14727,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14425,6 +14769,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14466,6 +14811,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14507,6 +14853,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14548,6 +14895,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14589,6 +14937,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14630,6 +14979,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -14671,6 +15021,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -14712,6 +15063,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -14753,6 +15105,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -14794,6 +15147,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -14835,6 +15189,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -14876,6 +15231,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -14917,6 +15273,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -14958,6 +15315,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -14999,6 +15357,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15040,6 +15399,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15081,6 +15441,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -15122,6 +15483,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -15163,6 +15525,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -15204,6 +15567,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15245,6 +15609,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15286,6 +15651,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -15327,6 +15693,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15368,6 +15735,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15409,6 +15777,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15450,6 +15819,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -15491,6 +15861,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -15532,6 +15903,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15573,6 +15945,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15614,6 +15987,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -15655,6 +16029,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -15696,6 +16071,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -15737,6 +16113,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -15778,6 +16155,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -15819,6 +16197,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -15860,6 +16239,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -15901,6 +16281,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -15942,6 +16323,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -15983,6 +16365,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -16024,6 +16407,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16065,6 +16449,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16106,6 +16491,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -16147,6 +16533,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16188,6 +16575,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16229,6 +16617,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16270,6 +16659,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -16311,6 +16701,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -16352,6 +16743,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -16393,6 +16785,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16434,6 +16827,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -16475,6 +16869,7 @@
           <t>46%</t>
         </is>
       </c>
+      <c r="J391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -16516,6 +16911,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -16557,6 +16953,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -16598,6 +16995,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -16639,6 +17037,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -16680,6 +17079,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -16721,6 +17121,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -16762,6 +17163,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -16803,6 +17205,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -16844,6 +17247,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -16885,6 +17289,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -16926,6 +17331,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -16967,6 +17373,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -17008,6 +17415,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -17049,6 +17457,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -17090,6 +17499,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -17131,6 +17541,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -17172,6 +17583,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -17213,6 +17625,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -17254,6 +17667,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -17295,6 +17709,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -17336,6 +17751,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -17377,6 +17793,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -17418,6 +17835,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -17459,6 +17877,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -17500,6 +17919,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -17541,6 +17961,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -17582,6 +18003,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -17623,6 +18045,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -17664,6 +18087,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -17705,6 +18129,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -17746,6 +18171,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -17787,6 +18213,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -17828,6 +18255,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -17869,6 +18297,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -17910,6 +18339,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -17951,6 +18381,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -17992,6 +18423,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -18033,6 +18465,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -18074,6 +18507,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -18115,6 +18549,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -18156,6 +18591,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -18197,6 +18633,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -18238,6 +18675,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -18279,6 +18717,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -18320,6 +18759,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -18361,6 +18801,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -18402,6 +18843,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -18443,6 +18885,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -18484,6 +18927,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -18525,6 +18969,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -18566,6 +19011,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -18607,6 +19053,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -18648,6 +19095,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -18689,6 +19137,7 @@
           <t>73%</t>
         </is>
       </c>
+      <c r="J445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -18730,6 +19179,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -18771,6 +19221,7 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="J447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -18812,6 +19263,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -18853,6 +19305,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -18894,6 +19347,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -18935,6 +19389,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -18976,6 +19431,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -19017,6 +19473,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -19058,6 +19515,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -19099,6 +19557,7 @@
           <t>75%</t>
         </is>
       </c>
+      <c r="J455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -19140,6 +19599,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -19181,6 +19641,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -19222,6 +19683,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -19263,6 +19725,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -19304,6 +19767,7 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="J460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -19345,6 +19809,7 @@
           <t>71%</t>
         </is>
       </c>
+      <c r="J461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -19386,6 +19851,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -19427,6 +19893,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -19468,6 +19935,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -19509,6 +19977,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -19550,6 +20019,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -19591,6 +20061,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -19632,6 +20103,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -19673,6 +20145,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -19714,6 +20187,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -19755,6 +20229,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -19796,6 +20271,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -19837,6 +20313,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -19878,6 +20355,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -19919,6 +20397,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -19960,6 +20439,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -20001,6 +20481,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -20042,6 +20523,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -20083,6 +20565,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -20124,6 +20607,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -20165,6 +20649,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -20206,6 +20691,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -20247,6 +20733,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -20288,6 +20775,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -20329,6 +20817,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -20370,6 +20859,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -20411,6 +20901,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -20452,6 +20943,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -20493,6 +20985,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -20534,6 +21027,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -20575,6 +21069,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -20616,6 +21111,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -20657,6 +21153,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -20698,6 +21195,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -20739,6 +21237,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -20780,6 +21279,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -20821,6 +21321,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -20862,6 +21363,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -20903,6 +21405,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -20944,6 +21447,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -20985,6 +21489,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -21026,6 +21531,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -21067,6 +21573,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -21108,6 +21615,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -21149,6 +21657,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -21190,6 +21699,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -21231,6 +21741,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -21272,6 +21783,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -21313,6 +21825,7 @@
           <t>50%</t>
         </is>
       </c>
+      <c r="J509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -21354,6 +21867,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -21395,6 +21909,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -21436,6 +21951,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -21477,6 +21993,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -21518,6 +22035,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -21559,6 +22077,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -21600,6 +22119,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -21641,6 +22161,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -21682,6 +22203,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -21723,6 +22245,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -21764,6 +22287,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -21805,6 +22329,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -21846,6 +22371,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -21887,6 +22413,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -21928,6 +22455,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -21969,6 +22497,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -22010,6 +22539,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -22051,6 +22581,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -22092,6 +22623,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -22133,6 +22665,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -22174,6 +22707,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -22215,6 +22749,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -22256,6 +22791,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -22297,6 +22833,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -22338,6 +22875,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -22379,6 +22917,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -22420,6 +22959,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -22461,6 +23001,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -22502,6 +23043,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -22543,6 +23085,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -22584,6 +23127,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -22625,6 +23169,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -22666,6 +23211,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -22707,6 +23253,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -22748,6 +23295,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -22789,6 +23337,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -22830,6 +23379,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -22871,6 +23421,7 @@
           <t>45%</t>
         </is>
       </c>
+      <c r="J547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -22912,6 +23463,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -22953,6 +23505,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -22994,6 +23547,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -23035,6 +23589,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -23076,6 +23631,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -23117,6 +23673,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -23158,6 +23715,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -23199,6 +23757,7 @@
           <t>69%</t>
         </is>
       </c>
+      <c r="J555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -23240,6 +23799,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -23281,6 +23841,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -23322,6 +23883,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -23363,6 +23925,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -23404,6 +23967,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -23445,6 +24009,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -23486,6 +24051,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -23527,6 +24093,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -23568,6 +24135,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -23609,6 +24177,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -23650,6 +24219,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -23691,6 +24261,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -23732,6 +24303,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -23773,6 +24345,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -23814,6 +24387,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -23855,6 +24429,7 @@
           <t>48%</t>
         </is>
       </c>
+      <c r="J571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -23896,6 +24471,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -23937,6 +24513,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -23978,6 +24555,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -24019,6 +24597,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -24060,6 +24639,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -24101,6 +24681,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -24142,6 +24723,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -24183,6 +24765,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -24224,6 +24807,7 @@
           <t>63%</t>
         </is>
       </c>
+      <c r="J580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -24265,6 +24849,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -24306,6 +24891,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -24347,6 +24933,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -24388,6 +24975,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -24429,6 +25017,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -24470,6 +25059,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -24511,6 +25101,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -24552,6 +25143,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -24593,6 +25185,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -24634,6 +25227,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -24675,6 +25269,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -24716,6 +25311,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -24757,6 +25353,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -24798,6 +25395,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -24839,6 +25437,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -24880,6 +25479,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -24921,6 +25521,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -24962,6 +25563,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -25003,6 +25605,7 @@
           <t>67%</t>
         </is>
       </c>
+      <c r="J599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -25044,6 +25647,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -25085,6 +25689,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -25126,6 +25731,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -25167,6 +25773,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -25208,6 +25815,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -25249,6 +25857,7 @@
           <t>65%</t>
         </is>
       </c>
+      <c r="J605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -25290,6 +25899,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -25331,6 +25941,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -25372,6 +25983,7 @@
           <t>54%</t>
         </is>
       </c>
+      <c r="J608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -25413,6 +26025,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -25454,6 +26067,7 @@
           <t>51%</t>
         </is>
       </c>
+      <c r="J610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -25495,6 +26109,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -25536,6 +26151,7 @@
           <t>55%</t>
         </is>
       </c>
+      <c r="J612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -25577,6 +26193,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -25618,6 +26235,7 @@
           <t>61%</t>
         </is>
       </c>
+      <c r="J614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -25659,6 +26277,7 @@
           <t>53%</t>
         </is>
       </c>
+      <c r="J615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -25700,6 +26319,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -25741,6 +26361,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -25782,6 +26403,7 @@
           <t>64%</t>
         </is>
       </c>
+      <c r="J618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -25823,6 +26445,7 @@
           <t>60%</t>
         </is>
       </c>
+      <c r="J619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -25864,6 +26487,7 @@
           <t>52%</t>
         </is>
       </c>
+      <c r="J620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -25905,6 +26529,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -25946,6 +26571,7 @@
           <t>62%</t>
         </is>
       </c>
+      <c r="J622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -25987,6 +26613,7 @@
           <t>56%</t>
         </is>
       </c>
+      <c r="J623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -26028,6 +26655,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -26069,6 +26697,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -26110,6 +26739,7 @@
           <t>68%</t>
         </is>
       </c>
+      <c r="J626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -26151,6 +26781,7 @@
           <t>66%</t>
         </is>
       </c>
+      <c r="J627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -26192,6 +26823,7 @@
           <t>59%</t>
         </is>
       </c>
+      <c r="J628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -26233,6 +26865,7 @@
           <t>58%</t>
         </is>
       </c>
+      <c r="J629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -26274,6 +26907,7 @@
           <t>57%</t>
         </is>
       </c>
+      <c r="J630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -26315,6 +26949,7 @@
           <t>70%</t>
         </is>
       </c>
+      <c r="J631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -26356,6 +26991,7 @@
           <t>90%</t>
         </is>
       </c>
+      <c r="J632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -26397,6 +27033,7 @@
           <t>86%</t>
         </is>
       </c>
+      <c r="J633" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sat_condensed_highlighted_top_total_score.xlsx
+++ b/sat_condensed_highlighted_top_total_score.xlsx
@@ -531,7 +531,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -573,7 +577,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -615,7 +623,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -657,7 +669,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -699,7 +715,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -741,7 +761,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -783,7 +807,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -825,7 +853,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -867,7 +899,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -909,7 +945,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -951,7 +991,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -993,7 +1037,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1035,7 +1083,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1077,7 +1129,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1119,7 +1175,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1161,7 +1221,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1203,7 +1267,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1245,7 +1313,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1287,7 +1359,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1329,7 +1405,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1371,7 +1451,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1413,7 +1497,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1455,7 +1543,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1497,7 +1589,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1539,7 +1635,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1581,7 +1681,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1623,7 +1727,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1665,7 +1773,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1707,7 +1819,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1749,7 +1865,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1791,7 +1911,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1833,7 +1957,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1875,7 +2003,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1917,7 +2049,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1959,7 +2095,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2001,7 +2141,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2043,7 +2187,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2085,7 +2233,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2127,7 +2279,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2169,7 +2325,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2211,7 +2371,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2253,7 +2417,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2295,7 +2463,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2337,7 +2509,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2379,7 +2555,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2421,7 +2601,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2463,7 +2647,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2505,7 +2693,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2547,7 +2739,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2589,7 +2785,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2631,7 +2831,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2673,7 +2877,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2715,7 +2923,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2757,7 +2969,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2799,7 +3015,11 @@
           <t>76%</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2841,7 +3061,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2883,7 +3107,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2925,7 +3153,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2967,7 +3199,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3009,7 +3245,11 @@
           <t>72%</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3051,7 +3291,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3093,7 +3337,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3135,7 +3383,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3177,7 +3429,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3219,7 +3475,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3261,7 +3521,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3303,7 +3567,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3345,7 +3613,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3387,7 +3659,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3429,7 +3705,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3471,7 +3751,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3513,7 +3797,11 @@
           <t>75%</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3555,7 +3843,11 @@
           <t>70%</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3597,7 +3889,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3639,7 +3935,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3681,7 +3981,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3723,7 +4027,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3765,7 +4073,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3807,7 +4119,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3849,7 +4165,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3891,7 +4211,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3933,7 +4257,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3975,7 +4303,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4017,7 +4349,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4059,7 +4395,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4101,7 +4441,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4143,7 +4487,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4185,7 +4533,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4227,7 +4579,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4269,7 +4625,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4311,7 +4671,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4353,7 +4717,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4395,7 +4763,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4437,7 +4809,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4479,7 +4855,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4521,7 +4901,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4563,7 +4947,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4605,7 +4993,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4647,7 +5039,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4689,7 +5085,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4731,7 +5131,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4773,7 +5177,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4815,7 +5223,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4857,7 +5269,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4899,7 +5315,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4941,7 +5361,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4983,7 +5407,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5025,7 +5453,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5067,7 +5499,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5109,7 +5545,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5151,7 +5591,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5193,7 +5637,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5235,7 +5683,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5277,7 +5729,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5319,7 +5775,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5361,7 +5821,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5403,7 +5867,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5445,7 +5913,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5487,7 +5959,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5529,7 +6005,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5571,7 +6051,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5613,7 +6097,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5655,7 +6143,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5697,7 +6189,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5739,7 +6235,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5781,7 +6281,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5823,7 +6327,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5865,7 +6373,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5907,7 +6419,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5949,7 +6465,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5991,7 +6511,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6033,7 +6557,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6075,7 +6603,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6117,7 +6649,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6159,7 +6695,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6201,7 +6741,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6243,7 +6787,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6285,7 +6833,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6327,7 +6879,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6369,7 +6925,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6411,7 +6971,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6453,7 +7017,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6495,7 +7063,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6537,7 +7109,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6579,7 +7155,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6621,7 +7201,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6663,7 +7247,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6705,7 +7293,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6747,7 +7339,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6789,7 +7385,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6831,7 +7431,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6873,7 +7477,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6915,7 +7523,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6957,7 +7569,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6999,7 +7615,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7041,7 +7661,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7083,7 +7707,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7125,7 +7753,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7167,7 +7799,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7209,7 +7845,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7251,7 +7891,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7293,7 +7937,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7335,7 +7983,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7377,7 +8029,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7419,7 +8075,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7461,7 +8121,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7503,7 +8167,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7545,7 +8213,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7587,7 +8259,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7629,7 +8305,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7671,7 +8351,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7713,7 +8397,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7755,7 +8443,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7797,7 +8489,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7839,7 +8535,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7881,7 +8581,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7923,7 +8627,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7965,7 +8673,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8007,7 +8719,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8049,7 +8765,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -8091,7 +8811,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8133,7 +8857,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8175,7 +8903,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8217,7 +8949,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8259,7 +8995,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8301,7 +9041,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8343,7 +9087,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8385,7 +9133,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8427,7 +9179,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8469,7 +9225,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8511,7 +9271,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8553,7 +9317,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8595,7 +9363,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8637,7 +9409,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8679,7 +9455,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8721,7 +9501,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8763,7 +9547,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8805,7 +9593,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8847,7 +9639,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8889,7 +9685,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8931,7 +9731,11 @@
           <t>78%</t>
         </is>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8973,7 +9777,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -9015,7 +9823,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -9057,7 +9869,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -9099,7 +9915,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -9141,7 +9961,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9183,7 +10007,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -9225,7 +10053,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -9267,7 +10099,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9309,7 +10145,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -9351,7 +10191,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -9393,7 +10237,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -9435,7 +10283,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9477,7 +10329,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9519,7 +10375,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9561,7 +10421,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9603,7 +10467,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9645,7 +10513,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9687,7 +10559,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9729,7 +10605,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9771,7 +10651,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9813,7 +10697,11 @@
           <t>79%</t>
         </is>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9855,7 +10743,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9897,7 +10789,11 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9939,7 +10835,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9981,7 +10881,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -10023,7 +10927,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -10065,7 +10973,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -10107,7 +11019,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -10149,7 +11065,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -10191,7 +11111,11 @@
           <t>80%</t>
         </is>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -10233,7 +11157,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -10275,7 +11203,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -10317,7 +11249,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -10359,7 +11295,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10401,7 +11341,11 @@
           <t>81%</t>
         </is>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -10443,7 +11387,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -10485,7 +11433,11 @@
           <t>83%</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10527,7 +11479,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10569,7 +11525,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10611,7 +11571,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10653,7 +11617,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10695,7 +11663,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10737,7 +11709,11 @@
           <t>47%</t>
         </is>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10779,7 +11755,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10821,7 +11801,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10863,7 +11847,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10905,7 +11893,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10947,7 +11939,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10989,7 +11985,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -11031,7 +12031,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -11073,7 +12077,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -11115,7 +12123,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11157,7 +12169,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -11199,7 +12215,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -11241,7 +12261,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -11283,7 +12307,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -11325,7 +12353,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11367,7 +12399,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -11409,7 +12445,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -11451,7 +12491,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -11493,7 +12537,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -11535,7 +12583,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11577,7 +12629,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11619,7 +12675,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11661,7 +12721,11 @@
           <t>49%</t>
         </is>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11703,7 +12767,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11745,7 +12813,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11787,7 +12859,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11829,7 +12905,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11871,7 +12951,11 @@
           <t>43%</t>
         </is>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11913,7 +12997,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11955,7 +13043,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11997,7 +13089,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -12039,7 +13135,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -12081,7 +13181,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -12123,7 +13227,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -12165,7 +13273,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -12207,7 +13319,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -12249,7 +13365,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -12291,7 +13411,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -12333,7 +13457,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -12375,7 +13503,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -12417,7 +13549,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -12459,7 +13595,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -12501,7 +13641,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -12543,7 +13687,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -12585,7 +13733,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12627,7 +13779,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12669,7 +13825,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12711,7 +13871,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12753,7 +13917,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12795,7 +13963,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12837,7 +14009,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12879,7 +14055,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12921,7 +14101,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12963,7 +14147,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -13005,7 +14193,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -13047,7 +14239,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -13089,7 +14285,11 @@
           <t>75%</t>
         </is>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -13131,7 +14331,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -13173,7 +14377,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -13215,7 +14423,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -13257,7 +14469,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -13299,7 +14515,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -13341,7 +14561,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -13383,7 +14607,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13425,7 +14653,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -13467,7 +14699,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -13509,7 +14745,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -13551,7 +14791,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -13593,7 +14837,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -13635,7 +14883,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13677,7 +14929,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13719,7 +14975,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13761,7 +15021,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13803,7 +15067,11 @@
           <t>70%</t>
         </is>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13845,7 +15113,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13887,7 +15159,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13929,7 +15205,11 @@
           <t>73%</t>
         </is>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13971,7 +15251,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -14013,7 +15297,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -14055,7 +15343,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -14097,7 +15389,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -14139,7 +15435,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -14181,7 +15481,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -14223,7 +15527,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -14265,7 +15573,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -14307,7 +15619,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -14349,7 +15665,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -14391,7 +15711,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -14433,7 +15757,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -14475,7 +15803,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -14517,7 +15849,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -14559,7 +15895,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -14601,7 +15941,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -14643,7 +15987,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -14685,7 +16033,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14727,7 +16079,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14769,7 +16125,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14811,7 +16171,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14853,7 +16217,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14895,7 +16263,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14937,7 +16309,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14979,7 +16355,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -15021,7 +16401,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -15063,7 +16447,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -15105,7 +16493,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -15147,7 +16539,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -15189,7 +16585,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -15231,7 +16631,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -15273,7 +16677,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -15315,7 +16723,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -15357,7 +16769,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -15399,7 +16815,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -15441,7 +16861,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -15483,7 +16907,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -15525,7 +16953,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -15567,7 +16999,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -15609,7 +17045,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -15651,7 +17091,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -15693,7 +17137,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -15735,7 +17183,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15777,7 +17229,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15819,7 +17275,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -15861,7 +17321,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -15903,7 +17367,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15945,7 +17413,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15987,7 +17459,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -16029,7 +17505,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -16071,7 +17551,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -16113,7 +17597,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -16155,7 +17643,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -16197,7 +17689,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -16239,7 +17735,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -16281,7 +17781,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -16323,7 +17827,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -16365,7 +17873,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -16407,7 +17919,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -16449,7 +17965,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -16491,7 +18011,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -16533,7 +18057,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -16575,7 +18103,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -16617,7 +18149,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -16659,7 +18195,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -16701,7 +18241,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -16743,7 +18287,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -16785,7 +18333,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16827,7 +18379,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -16869,7 +18425,11 @@
           <t>46%</t>
         </is>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -16911,7 +18471,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -16953,7 +18517,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -16995,7 +18563,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -17037,7 +18609,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -17079,7 +18655,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -17121,7 +18701,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -17163,7 +18747,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -17205,7 +18793,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -17247,7 +18839,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -17289,7 +18885,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -17331,7 +18931,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -17373,7 +18977,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -17415,7 +19023,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -17457,7 +19069,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -17499,7 +19115,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -17541,7 +19161,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -17583,7 +19207,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -17625,7 +19253,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -17667,7 +19299,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -17709,7 +19345,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -17751,7 +19391,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -17793,7 +19437,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -17835,7 +19483,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -17877,7 +19529,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -17919,7 +19575,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -17961,7 +19621,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -18003,7 +19667,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -18045,7 +19713,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -18087,7 +19759,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -18129,7 +19805,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -18171,7 +19851,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -18213,7 +19897,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -18255,7 +19943,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -18297,7 +19989,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -18339,7 +20035,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -18381,7 +20081,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -18423,7 +20127,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -18465,7 +20173,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -18507,7 +20219,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -18549,7 +20265,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -18591,7 +20311,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -18633,7 +20357,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -18675,7 +20403,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -18717,7 +20449,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -18759,7 +20495,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -18801,7 +20541,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -18843,7 +20587,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -18885,7 +20633,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -18927,7 +20679,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -18969,7 +20725,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -19011,7 +20771,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -19053,7 +20817,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -19095,7 +20863,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -19137,7 +20909,11 @@
           <t>73%</t>
         </is>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -19179,7 +20955,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -19221,7 +21001,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -19263,7 +21047,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -19305,7 +21093,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -19347,7 +21139,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -19389,7 +21185,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -19431,7 +21231,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -19473,7 +21277,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -19515,7 +21323,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -19557,7 +21369,11 @@
           <t>75%</t>
         </is>
       </c>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -19599,7 +21415,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -19641,7 +21461,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -19683,7 +21507,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -19725,7 +21553,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -19767,7 +21599,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -19809,7 +21645,11 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -19851,7 +21691,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -19893,7 +21737,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -19935,7 +21783,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -19977,7 +21829,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -20019,7 +21875,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -20061,7 +21921,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -20103,7 +21967,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -20145,7 +22013,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -20187,7 +22059,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -20229,7 +22105,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -20271,7 +22151,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -20313,7 +22197,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -20355,7 +22243,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -20397,7 +22289,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -20439,7 +22335,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -20481,7 +22381,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -20523,7 +22427,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -20565,7 +22473,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -20607,7 +22519,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -20649,7 +22565,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -20691,7 +22611,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -20733,7 +22657,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -20775,7 +22703,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -20817,7 +22749,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -20859,7 +22795,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -20901,7 +22841,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -20943,7 +22887,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -20985,7 +22933,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -21027,7 +22979,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -21069,7 +23025,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -21111,7 +23071,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -21153,7 +23117,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -21195,7 +23163,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -21237,7 +23209,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -21279,7 +23255,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -21321,7 +23301,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -21363,7 +23347,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -21405,7 +23393,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -21447,7 +23439,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -21489,7 +23485,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -21531,7 +23531,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -21573,7 +23577,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -21615,7 +23623,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -21657,7 +23669,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -21699,7 +23715,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -21741,7 +23761,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -21783,7 +23807,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -21825,7 +23853,11 @@
           <t>50%</t>
         </is>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -21867,7 +23899,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -21909,7 +23945,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -21951,7 +23991,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -21993,7 +24037,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -22035,7 +24083,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -22077,7 +24129,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -22119,7 +24175,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -22161,7 +24221,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -22203,7 +24267,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -22245,7 +24313,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -22287,7 +24359,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -22329,7 +24405,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -22371,7 +24451,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -22413,7 +24497,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -22455,7 +24543,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -22497,7 +24589,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -22539,7 +24635,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -22581,7 +24681,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -22623,7 +24727,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -22665,7 +24773,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -22707,7 +24819,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -22749,7 +24865,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -22791,7 +24911,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -22833,7 +24957,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -22875,7 +25003,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -22917,7 +25049,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -22959,7 +25095,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -23001,7 +25141,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -23043,7 +25187,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -23085,7 +25233,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -23127,7 +25279,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -23169,7 +25325,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -23211,7 +25371,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -23253,7 +25417,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -23295,7 +25463,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -23337,7 +25509,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -23379,7 +25555,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -23421,7 +25601,11 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -23463,7 +25647,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -23505,7 +25693,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -23547,7 +25739,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -23589,7 +25785,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -23631,7 +25831,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -23673,7 +25877,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -23715,7 +25923,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -23757,7 +25969,11 @@
           <t>69%</t>
         </is>
       </c>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -23799,7 +26015,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -23841,7 +26061,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -23883,7 +26107,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -23925,7 +26153,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -23967,7 +26199,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -24009,7 +26245,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -24051,7 +26291,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -24093,7 +26337,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -24135,7 +26383,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -24177,7 +26429,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -24219,7 +26475,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -24261,7 +26521,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -24303,7 +26567,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -24345,7 +26613,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -24387,7 +26659,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -24429,7 +26705,11 @@
           <t>48%</t>
         </is>
       </c>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -24471,7 +26751,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -24513,7 +26797,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -24555,7 +26843,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -24597,7 +26889,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -24639,7 +26935,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -24681,7 +26981,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -24723,7 +27027,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -24765,7 +27073,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -24807,7 +27119,11 @@
           <t>63%</t>
         </is>
       </c>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -24849,7 +27165,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -24891,7 +27211,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -24933,7 +27257,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -24975,7 +27303,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -25017,7 +27349,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -25059,7 +27395,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -25101,7 +27441,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -25143,7 +27487,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -25185,7 +27533,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -25227,7 +27579,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -25269,7 +27625,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -25311,7 +27671,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -25353,7 +27717,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -25395,7 +27763,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -25437,7 +27809,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -25479,7 +27855,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -25521,7 +27901,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -25563,7 +27947,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -25605,7 +27993,11 @@
           <t>67%</t>
         </is>
       </c>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -25647,7 +28039,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -25689,7 +28085,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -25731,7 +28131,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -25773,7 +28177,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -25815,7 +28223,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -25857,7 +28269,11 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -25899,7 +28315,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -25941,7 +28361,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -25983,7 +28407,11 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -26025,7 +28453,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -26067,7 +28499,11 @@
           <t>51%</t>
         </is>
       </c>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -26109,7 +28545,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -26151,7 +28591,11 @@
           <t>55%</t>
         </is>
       </c>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -26193,7 +28637,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -26235,7 +28683,11 @@
           <t>61%</t>
         </is>
       </c>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -26277,7 +28729,11 @@
           <t>53%</t>
         </is>
       </c>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -26319,7 +28775,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -26361,7 +28821,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -26403,7 +28867,11 @@
           <t>64%</t>
         </is>
       </c>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -26445,7 +28913,11 @@
           <t>60%</t>
         </is>
       </c>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -26487,7 +28959,11 @@
           <t>52%</t>
         </is>
       </c>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -26529,7 +29005,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -26571,7 +29051,11 @@
           <t>62%</t>
         </is>
       </c>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -26613,7 +29097,11 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -26655,7 +29143,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -26697,7 +29189,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -26739,7 +29235,11 @@
           <t>68%</t>
         </is>
       </c>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -26781,7 +29281,11 @@
           <t>66%</t>
         </is>
       </c>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -26823,7 +29327,11 @@
           <t>59%</t>
         </is>
       </c>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -26865,7 +29373,11 @@
           <t>58%</t>
         </is>
       </c>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -26907,7 +29419,11 @@
           <t>57%</t>
         </is>
       </c>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>Decent</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -26949,7 +29465,11 @@
           <t>70%</t>
         </is>
       </c>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -26991,7 +29511,11 @@
           <t>90%</t>
         </is>
       </c>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -27033,7 +29557,11 @@
           <t>86%</t>
         </is>
       </c>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>Proficient</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
